--- a/data/trans_orig/dukeAFECT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.64361125193906</v>
+        <v>16.6320439638508</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.22911358964425</v>
+        <v>17.22638003236036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.56522731861669</v>
+        <v>16.57736726842146</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.21345781892451</v>
+        <v>16.23132106365412</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>16.27615933424898</v>
+        <v>16.27843504385572</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.0977136250946</v>
+        <v>17.08454446036766</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.23281598369448</v>
+        <v>16.24583715027098</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>16.11876273872304</v>
+        <v>16.09010651792712</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.51035757343566</v>
+        <v>16.49972812513081</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17.19124757692542</v>
+        <v>17.19891229898004</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.45749048622735</v>
+        <v>16.44755705907518</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>16.21657909067815</v>
+        <v>16.22784237657167</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.07004080996172</v>
+        <v>17.05707510604988</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.60631850428961</v>
+        <v>17.60563847138781</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.98570414442966</v>
+        <v>17.00138747813898</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.85358374001364</v>
+        <v>16.8481754056918</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.68413351801311</v>
+        <v>16.675605233049</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.42264621250089</v>
+        <v>17.41097578212744</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.65221108421368</v>
+        <v>16.65001947792002</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.5349557420732</v>
+        <v>16.52582780077588</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.78812321095055</v>
+        <v>16.78846659078637</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17.44301530007196</v>
+        <v>17.43504403519919</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16.76046738789621</v>
+        <v>16.75599113519305</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>16.61120384564902</v>
+        <v>16.57999638075459</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>17.15107392274701</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>17.55020926557894</v>
+        <v>17.55020926557893</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17.74077961756748</v>
+        <v>17.74780484741507</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>17.8098151860742</v>
+        <v>17.82869827762806</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17.06111200939896</v>
+        <v>17.07093693371345</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17.47420538921515</v>
+        <v>17.46146189871702</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.38831427711616</v>
+        <v>17.37967733848654</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.44118423994074</v>
+        <v>17.44483853303998</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.99312248206445</v>
+        <v>16.99936480570099</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>17.37363785706647</v>
+        <v>17.37723683821659</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>17.60533248571319</v>
+        <v>17.60133847787634</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.68107240751416</v>
+        <v>17.68544820794364</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17.06848666013686</v>
+        <v>17.06725037014767</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>17.46656816811432</v>
+        <v>17.44638044121742</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.98777703443744</v>
+        <v>17.9899316447074</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.048418996427</v>
+        <v>18.04133647857109</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.29725509950151</v>
+        <v>17.30896703915167</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.73166510502223</v>
+        <v>17.74505468255731</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.67516207624825</v>
+        <v>17.66829384625126</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.70106194677153</v>
+        <v>17.7113764027768</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.22046131066078</v>
+        <v>17.22828473809482</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.61506358592493</v>
+        <v>17.60893508633157</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.79331688883542</v>
+        <v>17.79599578684761</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.84404687580852</v>
+        <v>17.84482608773001</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.22663201349439</v>
+        <v>17.23074971037531</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.64007362501177</v>
+        <v>17.63749896454642</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>17.61594537714945</v>
+        <v>17.61672388304482</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.80351964030169</v>
+        <v>17.76278124127778</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17.59261228985331</v>
+        <v>17.5998311669477</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.8400851884786</v>
+        <v>17.8261958355295</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.67927943367917</v>
+        <v>17.68563633579364</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.09337936800811</v>
+        <v>18.0882247187251</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.49998767396958</v>
+        <v>17.45215098596405</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>18.07013169936581</v>
+        <v>18.0875556844354</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.72020476128969</v>
+        <v>17.70038014368513</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18.03592070582503</v>
+        <v>18.03288478669061</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17.61763257873216</v>
+        <v>17.62749491110161</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>18.013886452892</v>
+        <v>18.01916495672446</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.08291162637514</v>
+        <v>18.09141116816037</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.31425567955509</v>
+        <v>18.29944190047937</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.00181688750355</v>
+        <v>18.01895087815351</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.2741140931006</v>
+        <v>18.26120741861451</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.18771732646534</v>
+        <v>18.2177509641727</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.49756990247162</v>
+        <v>18.5001339073784</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.92369900165616</v>
+        <v>17.91650877113219</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.38783547352732</v>
+        <v>18.41297139750813</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>18.05632331913947</v>
+        <v>18.06549640847317</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.33685739971251</v>
+        <v>18.35139955651456</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.89930575986921</v>
+        <v>17.91309051882701</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>18.28762243522774</v>
+        <v>18.28903692853616</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>17.19818806197954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17.52289231328145</v>
+        <v>17.52289231328144</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>17.18179945663275</v>
@@ -1101,7 +1101,7 @@
         <v>17.109454076699</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>17.45340172917201</v>
+        <v>17.453401729172</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>17.43557613332612</v>
+        <v>17.44244776701244</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.71842594592032</v>
+        <v>17.72633169475849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17.10970819094568</v>
+        <v>17.10348271014557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.41477355086406</v>
+        <v>17.41441183939519</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.07120472054473</v>
+        <v>17.05870821963127</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.45880555723623</v>
+        <v>17.46097969676211</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>16.92520397025745</v>
+        <v>16.9322364656605</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.29904674373604</v>
+        <v>17.28272245026172</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.28366639183418</v>
+        <v>17.28629935885544</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.60726411431654</v>
+        <v>17.61277606768345</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17.04829360165761</v>
+        <v>17.0401858781475</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.38549129384986</v>
+        <v>17.38049590136467</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.64839470283052</v>
+        <v>17.63986620099217</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.89327238478538</v>
+        <v>17.9018681617994</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.28966074360446</v>
+        <v>17.29083693242323</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.63620013509141</v>
+        <v>17.62134026959781</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>17.28551172476867</v>
+        <v>17.27721258296998</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>17.64706597303296</v>
+        <v>17.6459668222159</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>17.11828177267844</v>
+        <v>17.11685546137069</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>17.47358748949499</v>
+        <v>17.46783009032501</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.43559789138353</v>
+        <v>17.44384738849888</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.73609363409631</v>
+        <v>17.7463866835816</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.17836461779729</v>
+        <v>17.17003472486515</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.52651075460381</v>
+        <v>17.53116642869632</v>
       </c>
     </row>
     <row r="16">
